--- a/biology/Zoologie/Caudofoveata/Caudofoveata.xlsx
+++ b/biology/Zoologie/Caudofoveata/Caudofoveata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caudofovéates
 Les caudofovéates (Caudofoveata) sont une classe de mollusques vermiformes dépourvus de sillon ventral et de pied. Cette classe monotypique ne comprend qu'un ordre : les Chaetodermatida.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le manteau recouvre entièrement le corps sécrétant une cuticule contenant des écailles calcaires. La cavité palléale est postérieure transformée en cavité cloacale qui peut se refermer à l'aide d'un anneau musculeux. Les caudofoéates vivant verticalement la tête en bas dans les sédiments vaseux où ils sont endogés, c'est en général la seule partie qui dépasse dans l'eau.
 </t>
@@ -543,11 +557,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On en compte actuellement une centaine d'espèces.
-Liste : ordre, familles et genres
-Ordre Chaetodermatida Simroth, 1893
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caudofoveata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caudofoveata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste : ordre, familles et genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ordre Chaetodermatida Simroth, 1893
 famille Limifossoridae Salvini-Plawen, 1968
 Limifossor Heath, 1904
 famille Scutopidae Ivanov, 1979
